--- a/test/data/25peptides_5perpool_3x_configuration.xlsx
+++ b/test/data/25peptides_5perpool_3x_configuration.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,11 @@
           <t>well_id</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -475,8 +480,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A9</t>
-        </is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -495,8 +503,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B1</t>
-        </is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -515,8 +526,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -538,6 +552,9 @@
           <t>B2</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -555,8 +572,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A2</t>
-        </is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -575,8 +595,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -595,8 +618,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>A12</t>
-        </is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -615,8 +641,11 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A2</t>
-        </is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -635,8 +664,11 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A8</t>
-        </is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -655,8 +687,11 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A10</t>
-        </is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -675,8 +710,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -695,8 +733,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>A4</t>
-        </is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -715,8 +756,11 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A8</t>
-        </is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -735,8 +779,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -755,8 +802,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -775,8 +825,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>A2</t>
-        </is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -795,8 +848,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A9</t>
-        </is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -815,8 +871,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -835,8 +894,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A8</t>
-        </is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -855,8 +917,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -875,8 +940,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -895,8 +963,11 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A6</t>
-        </is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -915,8 +986,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -935,8 +1009,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>A4</t>
-        </is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -955,8 +1032,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -975,8 +1055,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -995,8 +1078,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1015,8 +1101,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1035,8 +1124,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A6</t>
-        </is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1055,8 +1147,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1075,8 +1170,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A6</t>
-        </is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1095,8 +1193,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A2</t>
-        </is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1115,8 +1216,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B1</t>
-        </is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1135,8 +1239,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A12</t>
-        </is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1155,8 +1262,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A9</t>
-        </is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1175,8 +1285,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1195,8 +1308,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>A12</t>
-        </is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1215,8 +1331,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A6</t>
-        </is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1238,6 +1357,9 @@
           <t>A1</t>
         </is>
       </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1255,8 +1377,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1275,8 +1400,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>A10</t>
-        </is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1295,8 +1423,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A12</t>
-        </is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1315,8 +1446,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1335,8 +1469,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1355,8 +1492,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>B1</t>
-        </is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -1375,8 +1515,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A9</t>
-        </is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1395,8 +1538,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -1415,8 +1561,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A4</t>
-        </is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -1435,8 +1584,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>A6</t>
-        </is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1455,8 +1607,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1475,8 +1630,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -1495,8 +1653,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1515,8 +1676,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A1</t>
-        </is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -1535,8 +1699,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A8</t>
-        </is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -1555,8 +1722,11 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>B3</t>
-        </is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -1575,8 +1745,11 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A10</t>
-        </is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -1595,8 +1768,11 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>A5</t>
-        </is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1615,8 +1791,11 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A1</t>
-        </is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1635,8 +1814,11 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A9</t>
-        </is>
+          <t>A11</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -1655,8 +1837,11 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -1675,8 +1860,11 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A8</t>
-        </is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -1695,8 +1883,11 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A4</t>
-        </is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1715,8 +1906,11 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B1</t>
-        </is>
+          <t>A9</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -1735,8 +1929,11 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A2</t>
-        </is>
+          <t>A8</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -1755,8 +1952,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1775,8 +1975,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>A10</t>
-        </is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -1795,8 +1998,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>B1</t>
-        </is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1818,6 +2024,9 @@
           <t>A10</t>
         </is>
       </c>
+      <c r="E69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1835,8 +2044,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>A1</t>
-        </is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -1855,8 +2067,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A4</t>
-        </is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -1878,6 +2093,9 @@
           <t>A12</t>
         </is>
       </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1895,8 +2113,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1915,8 +2136,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A7</t>
-        </is>
+          <t>A10</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1938,6 +2162,9 @@
           <t>A1</t>
         </is>
       </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1955,8 +2182,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A11</t>
-        </is>
+          <t>A12</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2011,12 +2241,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>peptide_20;peptide_25;peptide_4;peptide_7;peptide_9</t>
+          <t>peptide_1;peptide_2;peptide_20;peptide_3;peptide_9</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TITMQLMNREK;ANNTRLWVY;TLLPEFPNVK;FLLPSLATV;TPLIQPIGAL</t>
+          <t>ARMILMTHF;MPPHMLPVL;TITMQLMNREK;RARRKTARML;TPLIQPIGAL</t>
         </is>
       </c>
     </row>
@@ -2031,12 +2261,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>peptide_12;peptide_21;peptide_3;peptide_6;peptide_7</t>
+          <t>peptide_13;peptide_17;peptide_23;peptide_7;peptide_9</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SRHNERRFL;YLHARLREL;RARRKTARML;KVGNFTGLY;FLLPSLATV</t>
+          <t>TSCPPICPGYR;YKRCFPVIF;ATAERSRHHR;FLLPSLATV;TPLIQPIGAL</t>
         </is>
       </c>
     </row>
@@ -2051,12 +2281,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>peptide_15;peptide_23;peptide_24;peptide_6;peptide_9</t>
+          <t>peptide_13;peptide_18;peptide_20;peptide_22;peptide_4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TLPPAWQPF;ATAERSRHHR;YPHLHNAEL;KVGNFTGLY;TPLIQPIGAL</t>
+          <t>TSCPPICPGYR;YPKKGHGHSY;TITMQLMNREK;YFIKGLNNL;TLLPEFPNVK</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2301,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>peptide_11;peptide_2;peptide_20;peptide_21;peptide_8</t>
+          <t>peptide_12;peptide_19;peptide_25;peptide_8;peptide_9</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RPRRRRSTESW;MPPHMLPVL;TITMQLMNREK;YLHARLREL;SLTFNRGFK</t>
+          <t>SRHNERRFL;KTIQPRVEK;ANNTRLWVY;SLTFNRGFK;TPLIQPIGAL</t>
         </is>
       </c>
     </row>
@@ -2091,12 +2321,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>peptide_10;peptide_11;peptide_14;peptide_19;peptide_6</t>
+          <t>peptide_4;peptide_5;peptide_6;peptide_7;peptide_8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ARLELFVVL;RPRRRRSTESW;CRVLCCYVL;KTIQPRVEK;KVGNFTGLY</t>
+          <t>TLLPEFPNVK;GPWMQVPL;KVGNFTGLY;FLLPSLATV;SLTFNRGFK</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2341,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>peptide_1;peptide_15;peptide_17;peptide_18;peptide_21</t>
+          <t>peptide_10;peptide_11;peptide_12;peptide_13;peptide_14</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ARMILMTHF;TLPPAWQPF;YKRCFPVIF;YPKKGHGHSY;YLHARLREL</t>
+          <t>ARLELFVVL;RPRRRRSTESW;SRHNERRFL;TSCPPICPGYR;CRVLCCYVL</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2361,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>peptide_12;peptide_16;peptide_23;peptide_5;peptide_8</t>
+          <t>peptide_15;peptide_16;peptide_17;peptide_18;peptide_19</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SRHNERRFL;AAMHGRKIM;ATAERSRHHR;GPWMQVPL;SLTFNRGFK</t>
+          <t>TLPPAWQPF;AAMHGRKIM;YKRCFPVIF;YPKKGHGHSY;KTIQPRVEK</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2381,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>peptide_13;peptide_2;peptide_22;peptide_24;peptide_3</t>
+          <t>peptide_21;peptide_22;peptide_23;peptide_24;peptide_25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TSCPPICPGYR;MPPHMLPVL;YFIKGLNNL;YPHLHNAEL;RARRKTARML</t>
+          <t>YLHARLREL;YFIKGLNNL;ATAERSRHHR;YPHLHNAEL;ANNTRLWVY</t>
         </is>
       </c>
     </row>
@@ -2171,12 +2401,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>peptide_16;peptide_18;peptide_19;peptide_20;peptide_24</t>
+          <t>peptide_1;peptide_14;peptide_18;peptide_24;peptide_8</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AAMHGRKIM;YPKKGHGHSY;KTIQPRVEK;TITMQLMNREK;YPHLHNAEL</t>
+          <t>ARMILMTHF;CRVLCCYVL;YPKKGHGHSY;YPHLHNAEL;SLTFNRGFK</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2421,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>peptide_10;peptide_17;peptide_22;peptide_8;peptide_9</t>
+          <t>peptide_11;peptide_15;peptide_2;peptide_25;peptide_4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ARLELFVVL;YKRCFPVIF;YFIKGLNNL;SLTFNRGFK;TPLIQPIGAL</t>
+          <t>RPRRRRSTESW;TLPPAWQPF;MPPHMLPVL;ANNTRLWVY;TLLPEFPNVK</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2441,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>peptide_11;peptide_13;peptide_15;peptide_25;peptide_5</t>
+          <t>peptide_10;peptide_19;peptide_20;peptide_21;peptide_6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RPRRRRSTESW;TSCPPICPGYR;TLPPAWQPF;ANNTRLWVY;GPWMQVPL</t>
+          <t>ARLELFVVL;KTIQPRVEK;TITMQLMNREK;YLHARLREL;KVGNFTGLY</t>
         </is>
       </c>
     </row>
@@ -2231,12 +2461,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>peptide_1;peptide_14;peptide_2;peptide_23;peptide_4</t>
+          <t>peptide_12;peptide_16;peptide_22;peptide_3;peptide_5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ARMILMTHF;CRVLCCYVL;MPPHMLPVL;ATAERSRHHR;TLLPEFPNVK</t>
+          <t>SRHNERRFL;AAMHGRKIM;YFIKGLNNL;RARRKTARML;GPWMQVPL</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2481,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>peptide_1;peptide_19;peptide_22;peptide_5;peptide_7</t>
+          <t>peptide_14;peptide_17;peptide_2;peptide_21;peptide_5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ARMILMTHF;KTIQPRVEK;YFIKGLNNL;GPWMQVPL;FLLPSLATV</t>
+          <t>CRVLCCYVL;YKRCFPVIF;MPPHMLPVL;YLHARLREL;GPWMQVPL</t>
         </is>
       </c>
     </row>
@@ -2271,12 +2501,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>peptide_10;peptide_12;peptide_13;peptide_18;peptide_4</t>
+          <t>peptide_10;peptide_15;peptide_24;peptide_3;peptide_7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ARLELFVVL;SRHNERRFL;TSCPPICPGYR;YPKKGHGHSY;TLLPEFPNVK</t>
+          <t>ARLELFVVL;TLPPAWQPF;YPHLHNAEL;RARRKTARML;FLLPSLATV</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2521,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peptide_14;peptide_16;peptide_17;peptide_25;peptide_3</t>
+          <t>peptide_1;peptide_11;peptide_16;peptide_23;peptide_6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CRVLCCYVL;AAMHGRKIM;YKRCFPVIF;ANNTRLWVY;RARRKTARML</t>
+          <t>ARMILMTHF;RPRRRRSTESW;AAMHGRKIM;ATAERSRHHR;KVGNFTGLY</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2929,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7081111371517181</v>
+        <v>0.7081104815006256</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2969,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>plate_size</t>
+          <t>num_plate_wells</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
